--- a/datos/riesgo-datos.xlsx
+++ b/datos/riesgo-datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\regresion-analisys-predictied-modificado\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16272" windowHeight="8508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="6348"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,18 +588,32 @@
         <v>8.4471996791993884E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45639</v>
+        <v>45657</v>
       </c>
       <c r="B13" s="3">
-        <v>3.6185688816217171E-2</v>
+        <v>3.0107279294914118E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>1.7040132681951207E-2</v>
+        <v>2.4543712565587263E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>8.1284553252937222E-3</v>
+        <v>1.2526613590292716E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>45658</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2.7874542433205196E-2</v>
+      </c>
+      <c r="C14" s="3">
+        <v>2.7110924433475184E-2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.1051310383238458E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">

--- a/datos/riesgo-datos.xlsx
+++ b/datos/riesgo-datos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-1-DASHBOARD-INTERESANTES-STREAMLIT-PYTHON\dashboard-financiero\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12420" windowHeight="6348"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16512" windowHeight="5952"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -590,30 +590,30 @@
     </row>
     <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="4">
-        <v>45657</v>
+        <v>45639</v>
       </c>
       <c r="B13" s="3">
-        <v>3.0107279294914118E-2</v>
+        <v>3.6185688816217171E-2</v>
       </c>
       <c r="C13" s="3">
-        <v>2.4543712565587263E-2</v>
+        <v>1.7040132681951207E-2</v>
       </c>
       <c r="D13" s="3">
-        <v>1.2526613590292716E-2</v>
+        <v>8.1284553252937222E-3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
-        <v>45658</v>
+        <v>45670</v>
       </c>
       <c r="B14" s="3">
-        <v>2.7874542433205196E-2</v>
+        <v>0.65376689613605254</v>
       </c>
       <c r="C14" s="3">
-        <v>2.7110924433475184E-2</v>
+        <v>0.62725448121467864</v>
       </c>
       <c r="D14" s="3">
-        <v>1.1051310383238458E-2</v>
+        <v>0.285953377849749</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -621,11 +621,6 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
